--- a/resources/experiment 1/metrics/R2/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9829205662339716</v>
+        <v>0.9823409710142269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9829173130227257</v>
+        <v>0.9818270428934931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9829173130227257</v>
+        <v>0.9823211752767453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9837827366026419</v>
+        <v>0.9839127042472712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9837755188333519</v>
+        <v>0.9848937939169423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9837755188333519</v>
+        <v>0.9840816463475243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9340173330752082</v>
+        <v>0.8724958073020699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9334071869940906</v>
+        <v>0.8687247131190465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9334071869940906</v>
+        <v>0.8681428833948451</v>
       </c>
     </row>
   </sheetData>
